--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>SARS-CoV-2 Lambda</t>
+  </si>
+  <si>
+    <t>XN39J</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Mu</t>
+  </si>
+  <si>
+    <t>XN161</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 Omicron</t>
   </si>
   <si>
     <t/>
@@ -442,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,15 +573,31 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from mms" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from DDCC Codes for I" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:45:43+00:00</t>
+    <t>2023-01-08T23:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T00:16:31+00:00</t>
+    <t>2023-01-11T14:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-agent-targeted-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
